--- a/docs/gantt.xlsx
+++ b/docs/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abelha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagocv/Desktop/FEUP/4 ano/SINF/FEUP-SINF/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528AAC19-605C-4F6D-9BEF-6426C06F90E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBACFA7C-6469-EA41-96E4-C768D8DC75C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Construction Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>START DATE</t>
   </si>
@@ -111,40 +110,46 @@
     <t>Estimating efforts</t>
   </si>
   <si>
-    <t>write first report</t>
-  </si>
-  <si>
-    <t>environment setup</t>
-  </si>
-  <si>
     <t>Setup of backend server</t>
   </si>
   <si>
     <t>Create &amp; development of web routes</t>
   </si>
   <si>
-    <t>overview dashboard development</t>
+    <t>Project goals and MVP</t>
   </si>
   <si>
-    <t>finantial dashboard development</t>
+    <t>Integration of Primavera API</t>
   </si>
   <si>
-    <t>sales dashboard development</t>
+    <t>Write first report</t>
   </si>
   <si>
-    <t>procurement dashboard development</t>
+    <t>Overview dashboard development</t>
   </si>
   <si>
-    <t>inventory dashboard development</t>
+    <t>Finantial dashboard development</t>
   </si>
   <si>
-    <t xml:space="preserve"> product and client dashboard development</t>
+    <t>Sales dashboard development</t>
   </si>
   <si>
-    <t>final report and last adjustements</t>
+    <t>Inventory dashboard development</t>
   </si>
   <si>
-    <t>Project goals and MVP</t>
+    <t>Final report and last adjustements</t>
+  </si>
+  <si>
+    <t>Procurement dashboard development</t>
+  </si>
+  <si>
+    <t>Product dashboard development</t>
+  </si>
+  <si>
+    <t>Supplier dashboard development</t>
+  </si>
+  <si>
+    <t>Costumer dashboard development</t>
   </si>
 </sst>
 </file>
@@ -152,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -350,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -464,13 +469,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -497,12 +513,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -517,6 +527,21 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -529,42 +554,34 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -593,7 +610,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -645,9 +662,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Construction Gantt Chart'!$E$13:$E$28</c:f>
+              <c:f>'Construction Gantt Chart'!$E$13:$E$30</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Project goals and MVP</c:v>
                 </c:pt>
@@ -664,10 +681,10 @@
                   <c:v>Estimating efforts</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>write first report</c:v>
+                  <c:v>Write first report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>environment setup</c:v>
+                  <c:v>Integration of Primavera API</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Setup of backend server</c:v>
@@ -676,82 +693,94 @@
                   <c:v>Create &amp; development of web routes</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>overview dashboard development</c:v>
+                  <c:v>Overview dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>finantial dashboard development</c:v>
+                  <c:v>Finantial dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sales dashboard development</c:v>
+                  <c:v>Sales dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>procurement dashboard development</c:v>
+                  <c:v>Procurement dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>inventory dashboard development</c:v>
+                  <c:v>Inventory dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> product and client dashboard development</c:v>
+                  <c:v>Product dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>final report and last adjustements</c:v>
+                  <c:v>Supplier dashboard development</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Costumer dashboard development</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Final report and last adjustements</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Construction Gantt Chart'!$C$13:$C$28</c:f>
+              <c:f>'Construction Gantt Chart'!$C$13:$C$30</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>d/m/yy;@</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>44114</c:v>
+                  <c:v>44122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44115</c:v>
+                  <c:v>44126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44116</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44117</c:v>
+                  <c:v>44131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44118</c:v>
+                  <c:v>44142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44119</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44120</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44121</c:v>
+                  <c:v>44148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44122</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44124</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44125</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44126</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44127</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44164</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44129</c:v>
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,9 +808,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -792,9 +821,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Construction Gantt Chart'!$E$13:$E$28</c:f>
+              <c:f>'Construction Gantt Chart'!$E$13:$E$30</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Project goals and MVP</c:v>
                 </c:pt>
@@ -811,10 +840,10 @@
                   <c:v>Estimating efforts</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>write first report</c:v>
+                  <c:v>Write first report</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>environment setup</c:v>
+                  <c:v>Integration of Primavera API</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Setup of backend server</c:v>
@@ -823,82 +852,94 @@
                   <c:v>Create &amp; development of web routes</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>overview dashboard development</c:v>
+                  <c:v>Overview dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>finantial dashboard development</c:v>
+                  <c:v>Finantial dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>sales dashboard development</c:v>
+                  <c:v>Sales dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>procurement dashboard development</c:v>
+                  <c:v>Procurement dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>inventory dashboard development</c:v>
+                  <c:v>Inventory dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> product and client dashboard development</c:v>
+                  <c:v>Product dashboard development</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>final report and last adjustements</c:v>
+                  <c:v>Supplier dashboard development</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Costumer dashboard development</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Final report and last adjustements</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Construction Gantt Chart'!$F$13:$F$28</c:f>
+              <c:f>'Construction Gantt Chart'!$F$13:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +985,8 @@
         <c:axId val="750256816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="43980"/>
+          <c:max val="44183"/>
+          <c:min val="44122"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -962,7 +1004,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:numFmt formatCode="dd\-mm;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -990,7 +1032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750255136"/>
@@ -1028,7 +1070,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1596,7 +1638,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2001,266 +2043,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.36328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7" max="15" width="8.90625" style="1"/>
-    <col min="16" max="16" width="6.6328125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.36328125" style="1" customWidth="1"/>
-    <col min="19" max="24" width="2.81640625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="2" width="2.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="2.33203125" style="1" customWidth="1"/>
+    <col min="19" max="24" width="2.83203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+    <row r="4" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+    <row r="5" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="32" t="s">
+    <row r="6" spans="1:21" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+    <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:21" ht="7.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="29"/>
+    <row r="8" spans="1:21" ht="7.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="1:21" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="29"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37" t="s">
+    <row r="9" spans="1:21" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+    <row r="10" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="11"/>
@@ -2273,15 +2315,15 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="38"/>
+    <row r="12" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="14" t="s">
         <v>0</v>
       </c>
@@ -2291,7 +2333,7 @@
       <c r="E12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="12"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2302,27 +2344,27 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="29"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="16">
-        <v>44114</v>
-      </c>
-      <c r="D13" s="17">
+    <row r="13" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="40">
+        <v>44122</v>
+      </c>
+      <c r="D13" s="41">
         <f>C13+DAY(F13)</f>
-        <v>44115</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="41">
-        <v>1</v>
+        <v>44127</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="28">
+        <v>5</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="6"/>
@@ -2334,27 +2376,27 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
     </row>
-    <row r="14" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="16">
-        <v>44115</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" ref="D14:D28" si="0">C14+DAY(F14)</f>
-        <v>44116</v>
-      </c>
-      <c r="E14" s="39" t="s">
+    <row r="14" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="40">
+        <v>44126</v>
+      </c>
+      <c r="D14" s="41">
+        <f t="shared" ref="D14:D30" si="0">C14+DAY(F14)</f>
+        <v>44138</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="41">
-        <v>1</v>
+      <c r="F14" s="28">
+        <v>12</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="6"/>
@@ -2366,27 +2408,27 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="16">
-        <v>44116</v>
-      </c>
-      <c r="D15" s="17">
+    <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="40">
+        <v>44131</v>
+      </c>
+      <c r="D15" s="41">
         <f t="shared" si="0"/>
-        <v>44117</v>
-      </c>
-      <c r="E15" s="18" t="s">
+        <v>44140</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="41">
-        <v>1</v>
+      <c r="F15" s="28">
+        <v>9</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
@@ -2398,27 +2440,27 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="16">
-        <v>44117</v>
-      </c>
-      <c r="D16" s="17">
+    <row r="16" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="40">
+        <v>44131</v>
+      </c>
+      <c r="D16" s="41">
         <f t="shared" si="0"/>
-        <v>44118</v>
-      </c>
-      <c r="E16" s="39" t="s">
+        <v>44145</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="41">
-        <v>1</v>
+      <c r="F16" s="28">
+        <v>14</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
@@ -2430,27 +2472,27 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="16">
-        <v>44118</v>
-      </c>
-      <c r="D17" s="17">
+    <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="40">
+        <v>44142</v>
+      </c>
+      <c r="D17" s="41">
         <f t="shared" si="0"/>
-        <v>44119</v>
-      </c>
-      <c r="E17" s="18" t="s">
+        <v>44145</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="41">
-        <v>1</v>
+      <c r="F17" s="28">
+        <v>3</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
@@ -2462,27 +2504,27 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="16">
-        <v>44119</v>
-      </c>
-      <c r="D18" s="17">
+    <row r="18" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="40">
+        <v>44137</v>
+      </c>
+      <c r="D18" s="41">
         <f t="shared" si="0"/>
-        <v>44120</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="41">
-        <v>1</v>
+        <v>44145</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="28">
+        <v>8</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
@@ -2494,27 +2536,27 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
     </row>
-    <row r="19" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="16">
-        <v>44120</v>
-      </c>
-      <c r="D19" s="17">
+    <row r="19" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="40">
+        <v>44148</v>
+      </c>
+      <c r="D19" s="41">
         <f t="shared" si="0"/>
-        <v>44121</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="41">
-        <v>1</v>
+        <v>44150</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="28">
+        <v>2</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
@@ -2526,27 +2568,27 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
     </row>
-    <row r="20" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="16">
-        <v>44121</v>
-      </c>
-      <c r="D20" s="17">
+    <row r="20" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="40">
+        <v>44148</v>
+      </c>
+      <c r="D20" s="41">
         <f t="shared" si="0"/>
-        <v>44122</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="41">
-        <v>1</v>
+        <v>44156</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="28">
+        <v>8</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="6"/>
@@ -2558,27 +2600,27 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
     </row>
-    <row r="21" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="16">
-        <v>44122</v>
-      </c>
-      <c r="D21" s="17">
+    <row r="21" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="40">
+        <v>44156</v>
+      </c>
+      <c r="D21" s="41">
         <f t="shared" si="0"/>
-        <v>44123</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="41">
-        <v>1</v>
+        <v>44159</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="28">
+        <v>3</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="6"/>
@@ -2590,27 +2632,27 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
     </row>
-    <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="16">
-        <v>44123</v>
-      </c>
-      <c r="D22" s="17">
+    <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="40">
+        <v>44159</v>
+      </c>
+      <c r="D22" s="41">
         <f t="shared" si="0"/>
-        <v>44124</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="41">
-        <v>1</v>
+        <v>44179</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="28">
+        <v>20</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="6"/>
@@ -2622,27 +2664,27 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="16">
-        <v>44124</v>
-      </c>
-      <c r="D23" s="17">
+    <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="40">
+        <v>44159</v>
+      </c>
+      <c r="D23" s="41">
         <f t="shared" si="0"/>
-        <v>44125</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="41">
-        <v>1</v>
+        <v>44178</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="28">
+        <v>19</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="6"/>
@@ -2654,27 +2696,27 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
     </row>
-    <row r="24" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="16">
-        <v>44125</v>
-      </c>
-      <c r="D24" s="17">
+    <row r="24" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="40">
+        <v>44159</v>
+      </c>
+      <c r="D24" s="41">
         <f t="shared" si="0"/>
-        <v>44126</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="41">
-        <v>1</v>
+        <v>44178</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="28">
+        <v>19</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="6"/>
@@ -2686,27 +2728,27 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
     </row>
-    <row r="25" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="16">
-        <v>44126</v>
-      </c>
-      <c r="D25" s="17">
+    <row r="25" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="40">
+        <v>44159</v>
+      </c>
+      <c r="D25" s="41">
         <f t="shared" si="0"/>
-        <v>44127</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="41">
-        <v>1</v>
+        <v>44178</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="28">
+        <v>19</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="6"/>
@@ -2718,27 +2760,27 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="16">
-        <v>44127</v>
-      </c>
-      <c r="D26" s="17">
+    <row r="26" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="40">
+        <v>44159</v>
+      </c>
+      <c r="D26" s="41">
         <f t="shared" si="0"/>
-        <v>44128</v>
-      </c>
-      <c r="E26" s="39" t="s">
+        <v>44178</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="41">
-        <v>1</v>
+      <c r="F26" s="28">
+        <v>19</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="6"/>
@@ -2750,27 +2792,27 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="16">
-        <v>44128</v>
-      </c>
-      <c r="D27" s="17">
-        <f t="shared" si="0"/>
-        <v>44129</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="41">
-        <v>1</v>
+    <row r="27" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="40">
+        <v>44164</v>
+      </c>
+      <c r="D27" s="41">
+        <f t="shared" ref="D27" si="1">C27+DAY(F27)</f>
+        <v>44178</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="28">
+        <v>14</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="6"/>
@@ -2782,27 +2824,27 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="16">
-        <v>44129</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="0"/>
-        <v>44130</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="41">
-        <v>1</v>
+    <row r="28" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="40">
+        <v>44164</v>
+      </c>
+      <c r="D28" s="41">
+        <f t="shared" ref="D28" si="2">C28+DAY(F28)</f>
+        <v>44178</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="28">
+        <v>14</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="6"/>
@@ -2814,120 +2856,184 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
+    <row r="29" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="40">
+        <v>44164</v>
+      </c>
+      <c r="D29" s="41">
+        <f t="shared" si="0"/>
+        <v>44178</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="28">
+        <v>14</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
+    <row r="30" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="40">
+        <v>44178</v>
+      </c>
+      <c r="D30" s="41">
+        <f t="shared" si="0"/>
+        <v>44182</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="28">
+        <v>4</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="5.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
+    <row r="31" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
+    <row r="32" spans="1:21" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+    </row>
+    <row r="33" spans="1:21" ht="5.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2954,41 +3060,41 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="19"/>
-    <col min="2" max="2" width="55.36328125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="19"/>
+    <col min="1" max="1" width="8.83203125" style="17"/>
+    <col min="2" max="2" width="55.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+      <c r="B1" s="39"/>
+    </row>
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+    <row r="4" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3009,15 +3115,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="19"/>
-    <col min="2" max="2" width="31.90625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="19"/>
+    <col min="1" max="1" width="8.83203125" style="17"/>
+    <col min="2" max="2" width="31.83203125" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
